--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/78_Van_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/78_Van_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D37AA15F-9C12-4E21-AF0D-16243699A837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A08F352-49BB-4C75-AFFB-28541E54E462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{F73586BD-EE08-4868-A154-3B3EC3E2238D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{765404E6-5DC5-42C1-B1CD-F7AE14D5EAE3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -960,14 +960,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{770B1B1B-4107-4774-A66E-0CB550F1F261}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B347488E-4A61-4AE1-A841-5B00FFB92608}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{1A5ABD76-13D2-4C05-B566-B765F937D575}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{16DC99D3-E3B4-4D91-8A13-402B6E255D60}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{D3608A06-E464-4E69-BB3F-0368F02D0463}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{7E2B0B06-DDEB-495C-AE41-EC1872BB1850}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{9B20F9E7-9B02-487F-B0F2-EC12D5E3FA98}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8FAA091F-77BC-42FA-B34E-95D614B494FE}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A80A1C65-86B0-447D-A7DA-BC93CAA04212}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{CED2BD75-4E3E-4A6E-AA4D-FC837DB40199}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{8FEE2D36-C343-4E56-B026-724054E9BE27}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{98AFCF8A-05A5-4A6A-82F7-D7A8EDE82CDD}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{7379F0CA-AF98-4470-80F4-00386367AED0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{69DED984-A51C-4EC1-82C2-C7EC29928C45}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{86E6DC58-1AB4-4037-A378-2D50B3899047}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{A04304B5-787C-43FD-ADE4-942A9152F960}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1337,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22F18D7E-540F-4C6A-92BE-2CF868496B43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AD6B59-8B6E-4B6B-8448-597EF8CF8C45}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2626,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACAECB2-5316-401C-B6D4-121930A1504F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00ED2D6E-EC00-4CC0-AA36-AA28DEBEFF7C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3916,7 +3916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A845AB1-F2C8-481A-BEF8-DCE046BD28E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CDDB97-37A6-407B-857C-A42AF6323FE0}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5204,7 +5204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48153C40-6165-48A8-9D57-B532C8E25C26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C52362-E2E2-4409-9866-E7972A545F3F}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6492,7 +6492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0255FB43-7C0B-4AA9-9A55-DBD89B88C94A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EA95B6-D3DA-4DD4-B6AB-7DFCB856DC2B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7781,7 +7781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A0FCBF-62E6-488C-86AD-7189D6DE032C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8C3A94-C167-4759-A398-CE753CB04234}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9070,7 +9070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B9CDBB-2A3E-474D-83F9-742C8BC44FA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A650CB-99B2-4A92-8173-4F5D8F6A0AD9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10361,7 +10361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7D48E0-A884-4897-86C1-90E8B2816C01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B20ABA-4E5A-473D-B596-D63223D82208}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11650,7 +11650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB292E17-C839-4C9E-A72E-BCC74CBC9FF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE180CC-F3B5-4EC7-8C55-16E2970212A4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12941,7 +12941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E3D214-63B0-4C71-85F1-71FA000BD435}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65556CE7-9793-4696-963A-B8365EC42731}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14231,7 +14231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99982481-87F5-4089-B19F-A42BDED248EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C2697A-C153-4C65-9D81-CC0EBB9FA23E}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15523,7 +15523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D056AA2-AF3A-4005-9D76-C2D4E266148E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9583B8A-3113-49E6-AF2D-0AD9DCB56080}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
